--- a/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1491</v>
+        <v>1304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8470</v>
+        <v>8666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2024102185821505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07662917747499201</v>
+        <v>0.06698578912882239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4352302492503261</v>
+        <v>0.44529143322906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>4546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2230</v>
+        <v>2213</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7878</v>
+        <v>7336</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3000501206991928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1472262189956858</v>
+        <v>0.1460905926038089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5199761018352058</v>
+        <v>0.484229994784749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>8485</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4691</v>
+        <v>4758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13766</v>
+        <v>13022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2451494968044499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.135543289694295</v>
+        <v>0.1374611518451649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3977428050166936</v>
+        <v>0.3762419005591108</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1899</v>
+        <v>2277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9636</v>
+        <v>9602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2677009005220563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0975598323362981</v>
+        <v>0.1170223783654742</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4951486589350629</v>
+        <v>0.4934013532088881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>1751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4258</v>
+        <v>4067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1155588222842006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03282429975803157</v>
+        <v>0.03257597721442344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2810799516453018</v>
+        <v>0.2684640064546298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>6960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3669</v>
+        <v>3634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12593</v>
+        <v>12074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2011047398322187</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.105999520932921</v>
+        <v>0.104987820893734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3638360031156688</v>
+        <v>0.3488547221533665</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>10312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6383</v>
+        <v>6308</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14041</v>
+        <v>14401</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5298888808957931</v>
+        <v>0.5298888808957932</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3279777145297965</v>
+        <v>0.3241190362204131</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7215051688579645</v>
+        <v>0.7399857706076016</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -904,19 +904,19 @@
         <v>8854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5526</v>
+        <v>5936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11376</v>
+        <v>11594</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5843910570166068</v>
+        <v>0.5843910570166067</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3647416215908749</v>
+        <v>0.3918208356683141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7509018971601822</v>
+        <v>0.7652606800805989</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -925,19 +925,19 @@
         <v>19166</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13955</v>
+        <v>14445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23816</v>
+        <v>24090</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5537457633633315</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4031832613516688</v>
+        <v>0.4173494757491468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6880960126736523</v>
+        <v>0.6960242856952628</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>6063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2633</v>
+        <v>2511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12167</v>
+        <v>12393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1614605456316623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07010570923986327</v>
+        <v>0.066854114539592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3239887007280479</v>
+        <v>0.3300066505270328</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1050,19 +1050,19 @@
         <v>16176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10508</v>
+        <v>10152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21494</v>
+        <v>21193</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5016637231682054</v>
+        <v>0.5016637231682055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3258753799074565</v>
+        <v>0.3148316787068042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6665901191176734</v>
+        <v>0.6572499815258313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1071,19 +1071,19 @@
         <v>22239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15075</v>
+        <v>15306</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29938</v>
+        <v>30121</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3186252299546894</v>
+        <v>0.3186252299546895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2159757215680343</v>
+        <v>0.2192922597918835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4289198755495395</v>
+        <v>0.4315466406245339</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>2939</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7575</v>
+        <v>7396</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07827167518795944</v>
+        <v>0.07827167518795945</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02185482702255206</v>
+        <v>0.02173969590086696</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2017097593251351</v>
+        <v>0.1969502094274976</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1121,19 +1121,19 @@
         <v>3719</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1168</v>
+        <v>1530</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7622</v>
+        <v>7995</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1153340481568279</v>
+        <v>0.115334048156828</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03622881452122011</v>
+        <v>0.0474478853510039</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.236379617553536</v>
+        <v>0.2479323291026143</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1142,19 +1142,19 @@
         <v>6658</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3078</v>
+        <v>3057</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12014</v>
+        <v>11981</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09539349101017888</v>
+        <v>0.0953934910101789</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04409462911088972</v>
+        <v>0.04379769767747334</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1721224430689147</v>
+        <v>0.17165131506122</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>28550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22870</v>
+        <v>22362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33024</v>
+        <v>32947</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7602677791803782</v>
+        <v>0.7602677791803784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6089978437034506</v>
+        <v>0.5954853147646417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8794038646544237</v>
+        <v>0.8773592237371206</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1192,19 +1192,19 @@
         <v>12350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7716</v>
+        <v>7322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19794</v>
+        <v>19461</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3830022286749666</v>
+        <v>0.3830022286749667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2393034867080502</v>
+        <v>0.2270744849597401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6138543169734348</v>
+        <v>0.6035358229453248</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1213,19 +1213,19 @@
         <v>40900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32692</v>
+        <v>33119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48727</v>
+        <v>49204</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5859812790351318</v>
+        <v>0.5859812790351319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4683756206987497</v>
+        <v>0.4744992451231411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6981116886600681</v>
+        <v>0.7049474504055326</v>
       </c>
     </row>
     <row r="11">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4919</v>
+        <v>5699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09606477404545309</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4396783463814334</v>
+        <v>0.5093932984110655</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1338,19 +1338,19 @@
         <v>7298</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5102</v>
+        <v>4602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8881</v>
+        <v>8690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7816605287970713</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5464659870950684</v>
+        <v>0.4928823148615568</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9513031906826854</v>
+        <v>0.9307665122558126</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1359,19 +1359,19 @@
         <v>8372</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4448</v>
+        <v>4167</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12540</v>
+        <v>12639</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4079255657516552</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2167311715012306</v>
+        <v>0.2030234114430265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6110301676247135</v>
+        <v>0.6158317498751821</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2405</v>
+        <v>2594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05053515003088955</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2576360284536153</v>
+        <v>0.2778200061944703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2185</v>
+        <v>2835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02298720753213316</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1064431532975232</v>
+        <v>0.1381144806554505</v>
       </c>
     </row>
     <row r="14">
@@ -1451,7 +1451,7 @@
         <v>10113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6269</v>
+        <v>5489</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>11188</v>
@@ -1460,7 +1460,7 @@
         <v>0.9039352259545469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5603216536185676</v>
+        <v>0.490606701588932</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1472,19 +1472,19 @@
         <v>1567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3781</v>
+        <v>4338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1678043211720392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03803614650866106</v>
+        <v>0.03997658856040653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4049458176808493</v>
+        <v>0.4646762118972502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1493,19 +1493,19 @@
         <v>11679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7483</v>
+        <v>7404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15540</v>
+        <v>15826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5690872267162116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3646143118285498</v>
+        <v>0.3607588681018468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7571755948330876</v>
+        <v>0.7711127489215296</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>11077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6160</v>
+        <v>5863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18267</v>
+        <v>17611</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1624177337725285</v>
+        <v>0.1624177337725286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09032338140100926</v>
+        <v>0.08596718803091875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2678354941045267</v>
+        <v>0.2582119814409502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1618,19 +1618,19 @@
         <v>28019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20951</v>
+        <v>20359</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34384</v>
+        <v>34391</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4938987647656586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3693125466035177</v>
+        <v>0.3588666665941432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6060896072109271</v>
+        <v>0.606212750438671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1639,19 +1639,19 @@
         <v>39096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30045</v>
+        <v>30589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49249</v>
+        <v>49350</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.31293965152364</v>
+        <v>0.3129396515236401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2404869499646959</v>
+        <v>0.244846323970533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3942051602599376</v>
+        <v>0.3950119709701922</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>8149</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3747</v>
+        <v>4094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14639</v>
+        <v>14401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1194840637806505</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05494459270328723</v>
+        <v>0.06003094857060706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2146403383881753</v>
+        <v>0.2111571919109093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1689,19 +1689,19 @@
         <v>5941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3123</v>
+        <v>3290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10300</v>
+        <v>10472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1047307652107298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05504231460126505</v>
+        <v>0.05800090004196017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1815646667203046</v>
+        <v>0.1845917111715887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1710,19 +1710,19 @@
         <v>14091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8895</v>
+        <v>8867</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22754</v>
+        <v>21868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1127847519459856</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07119703070995174</v>
+        <v>0.07097019776329833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.182131771470889</v>
+        <v>0.1750367507155746</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>48976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1760,19 +1760,19 @@
         <v>22770</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16252</v>
+        <v>16489</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30701</v>
+        <v>31001</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4013704700236115</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2864781625046348</v>
+        <v>0.2906477660485164</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5411638113045697</v>
+        <v>0.5464556997752053</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -1781,19 +1781,19 @@
         <v>71746</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61023</v>
+        <v>61813</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>81983</v>
+        <v>82252</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5742755965303744</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4884492565397571</v>
+        <v>0.4947722880511274</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6562138999033524</v>
+        <v>0.6583722632482973</v>
       </c>
     </row>
     <row r="19">
